--- a/customer_data_invalid/customer_data_invalid.xlsx
+++ b/customer_data_invalid/customer_data_invalid.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,69 +518,3077 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Karl</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Berggren</t>
+          <t>Törnqvist</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19999-09-12</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>1965-06-23</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>+467379537420</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Martin.berggrenlive.com</t>
+          <t>karl.tornqvist@hotmail.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>No Street</t>
+          <t>Hymmersbacken 167</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Postcode</t>
+          <t>82291</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>No City</t>
+          <t>Alfta</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>No Municipality</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>45432</v>
+          <t>Ovanåker</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>E-Reader</t>
+          <t>Mechanical Keyboard</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3034</v>
+        <v>3067</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>1500.99</v>
+        <v>1600</v>
       </c>
       <c r="P2" t="n">
-        <v>1500.99</v>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Englund</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1959-05-13</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+46728485732</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>peter.englundicloud.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Dalkarlsberg</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>71392</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Gyttorp</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Nora</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>USB Hub</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>3061</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>299</v>
+      </c>
+      <c r="P3" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Johan</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Samuelsson</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1958-03-24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>+467053137421</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>johan.samuelsson@outlook.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Rödmyrvägen</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>84194</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Alby</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Ånge</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>3036</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2600</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kjell</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jönsson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1971-09-24</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>kjell.jonsson@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bullerbacken Fågelsjövägen 19</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>82770</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Los</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Ljusdal</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Webcam</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>3009</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>699</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dahl</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1993-10-18</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>+467298183900</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>anna.dahl@live.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Älvtorpsvägen</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>72692</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Skultuna</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Västerås</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Speaker System</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>3048</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>13500</v>
+      </c>
+      <c r="P6" t="n">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Kjell</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eriksson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1999-03-26</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>+467276383410</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>kjell.eriksson@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Vemdalsskalet Gamla Landsvägen 112</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>84694</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>3069</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2400</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Anders</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Johansson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1977-08-24</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>+467278149700</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>anders.johansson@icloud.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ravinvägen</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>84294</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Office Chair</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>3006</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1500</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tommy</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Olofsson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2001-01-12</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>+467314165831</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>tommy.olofsson@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Märrviksvägen 182</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>84195</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Överturingen</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Ånge</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Charging Cable</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>3038</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>150</v>
+      </c>
+      <c r="P9" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Emil</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eklund</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2003-06-02</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>emil.eklund@icloud.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Himmer 850</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>71595</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Kilsmo</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Desk</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>3005</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5550</v>
+      </c>
+      <c r="P10" t="n">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Roland</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Isaksson</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1994-04-01</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>+46703312022</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Folkströmsvägen</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>61273</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Hjortkvarn</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Hallsberg</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Whiteboard</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>3022</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>899</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ingegärd</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Danielsson</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1994-12-28</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>+46703582664</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ingegard.danielssonlive.com</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Pryssgårdsvägen 1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>61176</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Nävekvarn</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Nyköping</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>3036</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2600</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rut</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jönsson</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1989-02-16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>+46709809983</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>rut.jonssonhotmail.com</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hemvägen</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>77010</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Fredriksberg</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Wireless Mouse</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>3068</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1200</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pettersson</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1961-05-28</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>+46732389715</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>lena.petterssonoutlook.com</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Flokanvägen 61</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>78199</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Idkerberget</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Gaming Mouse</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>3016</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1300</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Josefine</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hansen</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1994-03-19</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>+46728772076</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>josefine.hansenlive.com</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Björnhyttan Ljungåsen Olsjön</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>77290</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Grängesberg</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Microphone</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>3010</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>999</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Olof</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sjöberg</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2001-04-24</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>+46705262817</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>olof.sjobergicloud.com</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Olatjärn Kronstugan</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>82776</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Ramsjö</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Ljusdal</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Speaker System</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>3048</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>13500</v>
+      </c>
+      <c r="P16" t="n">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Arne</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Holmqvist</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2003-09-07</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>+46766401054</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>arne.holmqvisthotmail.com</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Björkbergsvägen</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>82771</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Hamra</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Ljusdal</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Webcam</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>3009</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>699</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Anders</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Eriksson</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1993-02-28</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>+46766255664</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hillersbergsvägen</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>84398</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Sörbygden</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>USB Flash Drive</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>3015</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>799</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Olov</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Larsson</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1964-10-16</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>+467285223131</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>olov.larsson@outlook.com</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Betlehemsvägen</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>84294</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Speaker System</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>3048</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>13500</v>
+      </c>
+      <c r="P19" t="n">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mari</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Persson</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2000-04-17</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>+46702211237</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>mari.perssonhotmail.com</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Rönneshytta Station Fixan</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>69497</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Rönneshytta</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Askersund</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>3001</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8999</v>
+      </c>
+      <c r="P20" t="n">
+        <v>8999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Joakim</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Olsson</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1988-04-20</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>+46724225070</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>joakim.olssonlive.com</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Storhullsjön 203</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>86496</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Stöde</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Thunderbolt Cable</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>3062</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>499</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Birgitta</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bergström</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1954-04-19</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>+46729565442</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>birgitta.bergstromhotmail.com</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Gårdsjövägen</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>82772</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Korskrogen</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Ljusdal</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>HDMI Cable</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>3046</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>100</v>
+      </c>
+      <c r="P22" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Törnqvist</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1965-06-23</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>+467379537420</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>karl.tornqvist@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hymmersbacken 167</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>82291</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Alfta</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Ovanåker</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Mechanical Keyboard</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>3067</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1600</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Englund</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1959-05-13</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>+46728485732</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>peter.englundicloud.com</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Dalkarlsberg</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>71392</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Gyttorp</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Nora</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>USB Hub</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>3061</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>299</v>
+      </c>
+      <c r="P24" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Johan</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Samuelsson</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1958-03-24</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>+467053137421</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>johan.samuelsson@outlook.com</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Rödmyrvägen</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>84194</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Alby</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Ånge</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>3036</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2600</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Kjell</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Jönsson</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1971-09-24</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>kjell.jonsson@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Bullerbacken Fågelsjövägen 19</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>82770</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Los</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Ljusdal</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Webcam</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>3009</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>699</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Dahl</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1993-10-18</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>+467298183900</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>anna.dahl@live.com</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Älvtorpsvägen</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>72692</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Skultuna</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Västerås</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Speaker System</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>3048</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2</v>
+      </c>
+      <c r="O27" t="n">
+        <v>13500</v>
+      </c>
+      <c r="P27" t="n">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Kjell</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Eriksson</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1999-03-26</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>+467276383410</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>kjell.eriksson@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Vemdalsskalet Gamla Landsvägen 112</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>84694</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>3069</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2400</v>
+      </c>
+      <c r="P28" t="n">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Anders</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Johansson</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1977-08-24</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>+467278149700</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>anders.johansson@icloud.com</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Ravinvägen</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>84294</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Office Chair</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>3006</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1500</v>
+      </c>
+      <c r="P29" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tommy</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Olofsson</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2001-01-12</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>+467314165831</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>tommy.olofsson@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Märrviksvägen 182</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>84195</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Överturingen</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Ånge</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Charging Cable</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>3038</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>150</v>
+      </c>
+      <c r="P30" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Emil</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Eklund</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2003-06-02</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>emil.eklund@icloud.com</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Himmer 850</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>71595</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Kilsmo</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Desk</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>3005</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5550</v>
+      </c>
+      <c r="P31" t="n">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Roland</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Isaksson</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1994-04-01</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>+46703312022</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Folkströmsvägen</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>61273</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Hjortkvarn</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Hallsberg</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Whiteboard</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>3022</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4</v>
+      </c>
+      <c r="O32" t="n">
+        <v>899</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ingegärd</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Danielsson</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1994-12-28</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>+46703582664</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ingegard.danielssonlive.com</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Pryssgårdsvägen 1</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>61176</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Nävekvarn</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Nyköping</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Soundbar</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>3036</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2600</v>
+      </c>
+      <c r="P33" t="n">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rut</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Jönsson</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1989-02-16</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>+46709809983</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>rut.jonssonhotmail.com</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hemvägen</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>77010</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Fredriksberg</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Wireless Mouse</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>3068</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1200</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pettersson</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1961-05-28</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>+46732389715</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>lena.petterssonoutlook.com</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Flokanvägen 61</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>78199</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Idkerberget</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Gaming Mouse</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>3016</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1300</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Josefine</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Hansen</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1994-03-19</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>+46728772076</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>josefine.hansenlive.com</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Björnhyttan Ljungåsen Olsjön</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>77290</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Grängesberg</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Microphone</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>3010</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4</v>
+      </c>
+      <c r="O36" t="n">
+        <v>999</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Olof</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sjöberg</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2001-04-24</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>+46705262817</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>olof.sjobergicloud.com</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Olatjärn Kronstugan</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>82776</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Ramsjö</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Ljusdal</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Speaker System</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>3048</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3</v>
+      </c>
+      <c r="O37" t="n">
+        <v>13500</v>
+      </c>
+      <c r="P37" t="n">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Arne</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Holmqvist</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2003-09-07</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>+46766401054</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>arne.holmqvisthotmail.com</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Björkbergsvägen</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>82771</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Hamra</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Ljusdal</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Webcam</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>3009</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5</v>
+      </c>
+      <c r="O38" t="n">
+        <v>699</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Anders</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Eriksson</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1993-02-28</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>+46766255664</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Hillersbergsvägen</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>84398</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Sörbygden</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>USB Flash Drive</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>3015</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5</v>
+      </c>
+      <c r="O39" t="n">
+        <v>799</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Olov</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Larsson</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1964-10-16</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>+467285223131</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>olov.larsson@outlook.com</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Betlehemsvägen</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>84294</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Sveg</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Speaker System</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>3048</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4</v>
+      </c>
+      <c r="O40" t="n">
+        <v>13500</v>
+      </c>
+      <c r="P40" t="n">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mari</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Persson</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2000-04-17</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>+46702211237</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>mari.perssonhotmail.com</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Rönneshytta Station Fixan</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>69497</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Rönneshytta</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Askersund</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>3001</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>8999</v>
+      </c>
+      <c r="P41" t="n">
+        <v>8999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Joakim</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Olsson</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1988-04-20</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>+46724225070</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>joakim.olssonlive.com</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Storhullsjön 203</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>86496</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Stöde</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Thunderbolt Cable</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>3062</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4</v>
+      </c>
+      <c r="O42" t="n">
+        <v>499</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Birgitta</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Bergström</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1954-04-19</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>+46729565442</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>birgitta.bergstromhotmail.com</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Gårdsjövägen</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>82772</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Korskrogen</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Ljusdal</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>HDMI Cable</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>3046</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>100</v>
+      </c>
+      <c r="P43" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
